--- a/data/mixed ANOVA/mx 255530 Jan Schilling_Project 1_ mouse serum_04-2016_submit_4.29.2016.xlsx
+++ b/data/mixed ANOVA/mx 255530 Jan Schilling_Project 1_ mouse serum_04-2016_submit_4.29.2016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fansi\Desktop\MetaBoxDiv2\data\mixed ANOVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sili Fan\Documents\GitHub\MetaBoxDiv2\data\mixed ANOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9257"/>
   </bookViews>
   <sheets>
     <sheet name="submit" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="848">
   <si>
     <t/>
   </si>
@@ -2566,6 +2566,9 @@
   </si>
   <si>
     <t>KnownorUnknown</t>
+  </si>
+  <si>
+    <t>subjectID</t>
   </si>
 </sst>
 </file>
@@ -3080,17 +3083,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169:B340"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="20" style="7" customWidth="1"/>
-    <col min="4" max="10" width="8.85546875" style="7"/>
+    <col min="4" max="10" width="8.84375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J1" s="7" t="s">
         <v>843</v>
       </c>
@@ -3179,9 +3182,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J2" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3268,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C3" s="3"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3364,7 +3367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3460,7 +3463,7 @@
         <v>255547</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C5" s="3"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3556,7 +3559,7 @@
         <v>255554</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C6" s="3"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -3652,7 +3655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3748,7 +3751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3844,7 +3847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -3940,7 +3943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -4036,7 +4039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C11" s="3"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -4132,7 +4135,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C12" s="3"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -4228,7 +4231,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C13" s="3"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4324,7 +4327,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>844</v>
       </c>
@@ -4384,7 +4387,7 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>6756</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>89921</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>409149</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>9</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>11</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>84158</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>12</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>54230</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>13</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>14</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>16787</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>15</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>16</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>17</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>18</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>19</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>19574</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>20</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>21</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>22</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>23</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>24</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>25</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>330880</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>26</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>6942</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>27</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>49605</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>28</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>29</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>30</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>31</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>32</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>34</v>
       </c>
@@ -8328,7 +8331,7 @@
         <v>48086</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>35</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>36</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>37</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>38</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>39</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>34289</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>40</v>
       </c>
@@ -9024,7 +9027,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>41</v>
       </c>
@@ -9140,7 +9143,7 @@
         <v>27697</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>42</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>96269</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>43</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>15642</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>44</v>
       </c>
@@ -9488,7 +9491,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>45</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>46</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>47112</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>47</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>157633</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>48</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>49</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>52580</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>50</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>51</v>
       </c>
@@ -10300,7 +10303,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>52</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>53</v>
       </c>
@@ -10532,7 +10535,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>54</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>55</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>56</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>57</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>58</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>59</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="74" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>60</v>
       </c>
@@ -11344,7 +11347,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>61</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>11950</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>62</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>63</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>36145</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>64</v>
       </c>
@@ -11808,7 +11811,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>65</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>66</v>
       </c>
@@ -12040,7 +12043,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>67</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>68</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>61340</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>69</v>
       </c>
@@ -12388,7 +12391,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>70</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v>53035</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>71</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>72</v>
       </c>
@@ -12736,7 +12739,7 @@
         <v>550884</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>73</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="88" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>74</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>75</v>
       </c>
@@ -13084,7 +13087,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>76</v>
       </c>
@@ -13200,7 +13203,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>77</v>
       </c>
@@ -13316,7 +13319,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>78</v>
       </c>
@@ -13432,7 +13435,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>79</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>80</v>
       </c>
@@ -13664,7 +13667,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>81</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>82</v>
       </c>
@@ -13896,7 +13899,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>83</v>
       </c>
@@ -14012,7 +14015,7 @@
         <v>13273</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>84</v>
       </c>
@@ -14128,7 +14131,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>85</v>
       </c>
@@ -14244,7 +14247,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="100" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>86</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>111876</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>87</v>
       </c>
@@ -14476,7 +14479,7 @@
         <v>14243</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>88</v>
       </c>
@@ -14592,7 +14595,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>89</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>90</v>
       </c>
@@ -14824,7 +14827,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>91</v>
       </c>
@@ -14940,7 +14943,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>92</v>
       </c>
@@ -15056,7 +15059,7 @@
         <v>7238</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>93</v>
       </c>
@@ -15172,7 +15175,7 @@
         <v>66298</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>94</v>
       </c>
@@ -15288,7 +15291,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>95</v>
       </c>
@@ -15404,7 +15407,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>96</v>
       </c>
@@ -15520,7 +15523,7 @@
         <v>77700</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>97</v>
       </c>
@@ -15636,7 +15639,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="112" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>98</v>
       </c>
@@ -15752,7 +15755,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="113" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>99</v>
       </c>
@@ -15868,7 +15871,7 @@
         <v>50535</v>
       </c>
     </row>
-    <row r="114" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>100</v>
       </c>
@@ -15984,7 +15987,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>101</v>
       </c>
@@ -16100,7 +16103,7 @@
         <v>1187167</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>102</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>103</v>
       </c>
@@ -16332,7 +16335,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>104</v>
       </c>
@@ -16448,7 +16451,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>105</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
         <v>106</v>
       </c>
@@ -16680,7 +16683,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>107</v>
       </c>
@@ -16796,7 +16799,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
         <v>108</v>
       </c>
@@ -16912,7 +16915,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="123" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>109</v>
       </c>
@@ -17028,7 +17031,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
         <v>110</v>
       </c>
@@ -17144,7 +17147,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>111</v>
       </c>
@@ -17260,7 +17263,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="126" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
         <v>112</v>
       </c>
@@ -17376,7 +17379,7 @@
         <v>25962</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>113</v>
       </c>
@@ -17492,7 +17495,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <v>114</v>
       </c>
@@ -17608,7 +17611,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>115</v>
       </c>
@@ -17724,7 +17727,7 @@
         <v>114317</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
         <v>116</v>
       </c>
@@ -17840,7 +17843,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>117</v>
       </c>
@@ -17956,7 +17959,7 @@
         <v>256249</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
         <v>118</v>
       </c>
@@ -18072,7 +18075,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>119</v>
       </c>
@@ -18188,7 +18191,7 @@
         <v>3331977</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
         <v>120</v>
       </c>
@@ -18304,7 +18307,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>121</v>
       </c>
@@ -18420,7 +18423,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="136" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
         <v>122</v>
       </c>
@@ -18536,7 +18539,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>123</v>
       </c>
@@ -18652,7 +18655,7 @@
         <v>390683</v>
       </c>
     </row>
-    <row r="138" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
         <v>124</v>
       </c>
@@ -18768,7 +18771,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>125</v>
       </c>
@@ -18884,7 +18887,7 @@
         <v>16062</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
         <v>126</v>
       </c>
@@ -19000,7 +19003,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>127</v>
       </c>
@@ -19116,7 +19119,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
         <v>128</v>
       </c>
@@ -19232,7 +19235,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>129</v>
       </c>
@@ -19348,7 +19351,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A144" s="4">
         <v>130</v>
       </c>
@@ -19464,7 +19467,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>131</v>
       </c>
@@ -19580,7 +19583,7 @@
         <v>202869</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A146" s="4">
         <v>132</v>
       </c>
@@ -19696,7 +19699,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="147" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>133</v>
       </c>
@@ -19812,7 +19815,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="148" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
         <v>134</v>
       </c>
@@ -19928,7 +19931,7 @@
         <v>319012</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>135</v>
       </c>
@@ -20044,7 +20047,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
         <v>136</v>
       </c>
@@ -20160,7 +20163,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>137</v>
       </c>
@@ -20276,7 +20279,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
         <v>138</v>
       </c>
@@ -20392,7 +20395,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>139</v>
       </c>
@@ -20508,7 +20511,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
         <v>140</v>
       </c>
@@ -20624,7 +20627,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>141</v>
       </c>
@@ -20740,7 +20743,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
         <v>142</v>
       </c>
@@ -20856,7 +20859,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>143</v>
       </c>
@@ -20972,7 +20975,7 @@
         <v>56379</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
         <v>144</v>
       </c>
@@ -21088,7 +21091,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>145</v>
       </c>
@@ -21204,7 +21207,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
         <v>146</v>
       </c>
@@ -21320,7 +21323,7 @@
         <v>18189</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>147</v>
       </c>
@@ -21436,7 +21439,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
         <v>148</v>
       </c>
@@ -21552,7 +21555,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>149</v>
       </c>
@@ -21668,7 +21671,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
         <v>150</v>
       </c>
@@ -21784,7 +21787,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>151</v>
       </c>
@@ -21900,7 +21903,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
         <v>152</v>
       </c>
@@ -22016,7 +22019,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>153</v>
       </c>
@@ -22132,7 +22135,7 @@
         <v>16153</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A168" s="4">
         <v>154</v>
       </c>
@@ -22248,7 +22251,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>155</v>
       </c>
@@ -22364,7 +22367,7 @@
         <v>28202</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A170" s="4">
         <v>156</v>
       </c>
@@ -22480,7 +22483,7 @@
         <v>10447</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>157</v>
       </c>
@@ -22596,7 +22599,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A172" s="4">
         <v>158</v>
       </c>
@@ -22712,7 +22715,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>159</v>
       </c>
@@ -22828,7 +22831,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A174" s="4">
         <v>160</v>
       </c>
@@ -22944,7 +22947,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>161</v>
       </c>
@@ -23060,7 +23063,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A176" s="4">
         <v>162</v>
       </c>
@@ -23176,7 +23179,7 @@
         <v>22855</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>163</v>
       </c>
@@ -23292,7 +23295,7 @@
         <v>33598</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A178" s="4">
         <v>164</v>
       </c>
@@ -23408,7 +23411,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>165</v>
       </c>
@@ -23524,7 +23527,7 @@
         <v>6634</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A180" s="4">
         <v>166</v>
       </c>
@@ -23640,7 +23643,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>167</v>
       </c>
@@ -23756,7 +23759,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A182" s="4">
         <v>168</v>
       </c>
@@ -23872,7 +23875,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>169</v>
       </c>
@@ -23988,7 +23991,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A184" s="4">
         <v>170</v>
       </c>
@@ -24104,7 +24107,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>171</v>
       </c>
@@ -24220,7 +24223,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A186" s="4">
         <v>172</v>
       </c>
@@ -24336,7 +24339,7 @@
         <v>21011</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>173</v>
       </c>
@@ -24452,7 +24455,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A188" s="4">
         <v>174</v>
       </c>
@@ -24568,7 +24571,7 @@
         <v>126979</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>175</v>
       </c>
@@ -24684,7 +24687,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A190" s="4">
         <v>176</v>
       </c>
@@ -24800,7 +24803,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>177</v>
       </c>
@@ -24916,7 +24919,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A192" s="4">
         <v>178</v>
       </c>
@@ -25032,7 +25035,7 @@
         <v>3754660</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>179</v>
       </c>
@@ -25148,7 +25151,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A194" s="4">
         <v>180</v>
       </c>
@@ -25264,7 +25267,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>181</v>
       </c>
@@ -25380,7 +25383,7 @@
         <v>10763</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A196" s="4">
         <v>182</v>
       </c>
@@ -25496,7 +25499,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>183</v>
       </c>
@@ -25612,7 +25615,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A198" s="4">
         <v>184</v>
       </c>
@@ -25728,7 +25731,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>185</v>
       </c>
@@ -25844,7 +25847,7 @@
         <v>7857</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A200" s="4">
         <v>186</v>
       </c>
@@ -25960,7 +25963,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>187</v>
       </c>
@@ -26076,7 +26079,7 @@
         <v>20029</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A202" s="4">
         <v>188</v>
       </c>
@@ -26192,7 +26195,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>189</v>
       </c>
@@ -26308,7 +26311,7 @@
         <v>15338</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
         <v>190</v>
       </c>
@@ -26424,7 +26427,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>191</v>
       </c>
@@ -26540,7 +26543,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
         <v>192</v>
       </c>
@@ -26656,7 +26659,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>193</v>
       </c>
@@ -26772,7 +26775,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
         <v>194</v>
       </c>
@@ -26888,7 +26891,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>195</v>
       </c>
@@ -27004,7 +27007,7 @@
         <v>9604</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
         <v>196</v>
       </c>
@@ -27120,7 +27123,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>197</v>
       </c>
@@ -27236,7 +27239,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
         <v>198</v>
       </c>
@@ -27352,7 +27355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>199</v>
       </c>
@@ -27468,7 +27471,7 @@
         <v>4889</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A214" s="4">
         <v>200</v>
       </c>
@@ -27584,7 +27587,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>201</v>
       </c>
@@ -27700,7 +27703,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A216" s="4">
         <v>202</v>
       </c>
@@ -27816,7 +27819,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>203</v>
       </c>
@@ -27932,7 +27935,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A218" s="4">
         <v>204</v>
       </c>
@@ -28048,7 +28051,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>205</v>
       </c>
@@ -28164,7 +28167,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
         <v>206</v>
       </c>
@@ -28280,7 +28283,7 @@
         <v>10602</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>207</v>
       </c>
@@ -28396,7 +28399,7 @@
         <v>29089</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
         <v>208</v>
       </c>
@@ -28512,7 +28515,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>209</v>
       </c>
@@ -28628,7 +28631,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A224" s="4">
         <v>210</v>
       </c>
@@ -28744,7 +28747,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>211</v>
       </c>
@@ -28860,7 +28863,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A226" s="4">
         <v>212</v>
       </c>
@@ -28976,7 +28979,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>213</v>
       </c>
@@ -29092,7 +29095,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A228" s="4">
         <v>214</v>
       </c>
@@ -29208,7 +29211,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>215</v>
       </c>
@@ -29324,7 +29327,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A230" s="4">
         <v>216</v>
       </c>
@@ -29440,7 +29443,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>217</v>
       </c>
@@ -29556,7 +29559,7 @@
         <v>30759</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A232" s="4">
         <v>218</v>
       </c>
@@ -29672,7 +29675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>219</v>
       </c>
@@ -29788,7 +29791,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A234" s="4">
         <v>220</v>
       </c>
@@ -29904,7 +29907,7 @@
         <v>5219</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>221</v>
       </c>
@@ -30020,7 +30023,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A236" s="4">
         <v>222</v>
       </c>
@@ -30136,7 +30139,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>223</v>
       </c>
@@ -30252,7 +30255,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A238" s="4">
         <v>224</v>
       </c>
@@ -30368,7 +30371,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>225</v>
       </c>
@@ -30484,7 +30487,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A240" s="4">
         <v>226</v>
       </c>
@@ -30600,7 +30603,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>227</v>
       </c>
@@ -30716,7 +30719,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A242" s="4">
         <v>228</v>
       </c>
@@ -30832,7 +30835,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>229</v>
       </c>
@@ -30948,7 +30951,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A244" s="4">
         <v>230</v>
       </c>
@@ -31064,7 +31067,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>231</v>
       </c>
@@ -31180,7 +31183,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A246" s="4">
         <v>232</v>
       </c>
@@ -31296,7 +31299,7 @@
         <v>30641</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>233</v>
       </c>
@@ -31412,7 +31415,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A248" s="4">
         <v>234</v>
       </c>
@@ -31528,7 +31531,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>235</v>
       </c>
@@ -31644,7 +31647,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A250" s="4">
         <v>236</v>
       </c>
@@ -31760,7 +31763,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>237</v>
       </c>
@@ -31876,7 +31879,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A252" s="4">
         <v>238</v>
       </c>
@@ -31992,7 +31995,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>239</v>
       </c>
@@ -32108,7 +32111,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A254" s="4">
         <v>240</v>
       </c>
@@ -32224,7 +32227,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>241</v>
       </c>
@@ -32340,7 +32343,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A256" s="4">
         <v>242</v>
       </c>
@@ -32456,7 +32459,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>243</v>
       </c>
@@ -32572,7 +32575,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A258" s="4">
         <v>244</v>
       </c>
@@ -32688,7 +32691,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>245</v>
       </c>
@@ -32804,7 +32807,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A260" s="4">
         <v>246</v>
       </c>
@@ -32920,7 +32923,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>247</v>
       </c>
@@ -33036,7 +33039,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A262" s="4">
         <v>248</v>
       </c>
@@ -33152,7 +33155,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>249</v>
       </c>
@@ -33268,7 +33271,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A264" s="4">
         <v>250</v>
       </c>
@@ -33384,7 +33387,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>251</v>
       </c>
@@ -33500,7 +33503,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A266" s="4">
         <v>252</v>
       </c>
@@ -33616,7 +33619,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>253</v>
       </c>
@@ -33732,7 +33735,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A268" s="4">
         <v>254</v>
       </c>
@@ -33848,7 +33851,7 @@
         <v>5155</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>255</v>
       </c>
@@ -33964,7 +33967,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A270" s="4">
         <v>256</v>
       </c>
@@ -34080,7 +34083,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>257</v>
       </c>
@@ -34196,7 +34199,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A272" s="4">
         <v>258</v>
       </c>
@@ -34312,7 +34315,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>259</v>
       </c>
@@ -34428,7 +34431,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A274" s="4">
         <v>260</v>
       </c>
@@ -34544,7 +34547,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>261</v>
       </c>
@@ -34660,7 +34663,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A276" s="4">
         <v>262</v>
       </c>
@@ -34776,7 +34779,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>263</v>
       </c>
@@ -34892,7 +34895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A278" s="4">
         <v>264</v>
       </c>
@@ -35008,7 +35011,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>265</v>
       </c>
@@ -35124,7 +35127,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A280" s="4">
         <v>266</v>
       </c>
@@ -35240,7 +35243,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>267</v>
       </c>
@@ -35356,7 +35359,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A282" s="4">
         <v>268</v>
       </c>
@@ -35472,7 +35475,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>269</v>
       </c>
@@ -35588,7 +35591,7 @@
         <v>23384</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A284" s="4">
         <v>270</v>
       </c>
@@ -35704,7 +35707,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>271</v>
       </c>
@@ -35820,7 +35823,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A286" s="4">
         <v>272</v>
       </c>
@@ -35936,7 +35939,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>273</v>
       </c>
@@ -36052,7 +36055,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A288" s="4">
         <v>274</v>
       </c>
@@ -36168,7 +36171,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>275</v>
       </c>
@@ -36284,7 +36287,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A290" s="4">
         <v>276</v>
       </c>
@@ -36400,7 +36403,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>277</v>
       </c>
@@ -36516,7 +36519,7 @@
         <v>10533</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A292" s="4">
         <v>278</v>
       </c>
@@ -36632,7 +36635,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>279</v>
       </c>
@@ -36748,7 +36751,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A294" s="4">
         <v>280</v>
       </c>
@@ -36864,7 +36867,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>281</v>
       </c>
@@ -36980,7 +36983,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A296" s="4">
         <v>282</v>
       </c>
@@ -37096,7 +37099,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>283</v>
       </c>
@@ -37212,7 +37215,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A298" s="4">
         <v>284</v>
       </c>
@@ -37328,7 +37331,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>285</v>
       </c>
@@ -37444,7 +37447,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A300" s="4">
         <v>286</v>
       </c>
@@ -37560,7 +37563,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>287</v>
       </c>
@@ -37676,7 +37679,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A302" s="4">
         <v>288</v>
       </c>
@@ -37792,7 +37795,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>289</v>
       </c>
@@ -37908,7 +37911,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A304" s="4">
         <v>290</v>
       </c>
@@ -38024,7 +38027,7 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>291</v>
       </c>
@@ -38140,7 +38143,7 @@
         <v>4241</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A306" s="4">
         <v>292</v>
       </c>
@@ -38256,7 +38259,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>293</v>
       </c>
@@ -38372,7 +38375,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A308" s="4">
         <v>294</v>
       </c>
@@ -38488,7 +38491,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>295</v>
       </c>
@@ -38604,7 +38607,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A310" s="4">
         <v>296</v>
       </c>
@@ -38720,7 +38723,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>297</v>
       </c>
@@ -38836,7 +38839,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A312" s="4">
         <v>298</v>
       </c>
@@ -38952,7 +38955,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>299</v>
       </c>
@@ -39068,7 +39071,7 @@
         <v>5189</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A314" s="4">
         <v>300</v>
       </c>
@@ -39184,7 +39187,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>301</v>
       </c>
@@ -39300,7 +39303,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A316" s="4">
         <v>302</v>
       </c>
@@ -39416,7 +39419,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>303</v>
       </c>
@@ -39532,7 +39535,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A318" s="4">
         <v>304</v>
       </c>
@@ -39648,7 +39651,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>305</v>
       </c>
@@ -39764,7 +39767,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A320" s="4">
         <v>306</v>
       </c>
@@ -39880,7 +39883,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>307</v>
       </c>
@@ -39996,7 +39999,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A322" s="4">
         <v>308</v>
       </c>
@@ -40112,7 +40115,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>309</v>
       </c>
@@ -40228,7 +40231,7 @@
         <v>11378</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A324" s="4">
         <v>310</v>
       </c>
@@ -40344,7 +40347,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>311</v>
       </c>
@@ -40460,7 +40463,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A326" s="4">
         <v>312</v>
       </c>
@@ -40576,7 +40579,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>313</v>
       </c>
@@ -40692,7 +40695,7 @@
         <v>15520</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A328" s="4">
         <v>314</v>
       </c>
@@ -40808,7 +40811,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>315</v>
       </c>
@@ -40924,7 +40927,7 @@
         <v>29264</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A330" s="4">
         <v>316</v>
       </c>
@@ -41040,7 +41043,7 @@
         <v>27953</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>317</v>
       </c>
@@ -41156,7 +41159,7 @@
         <v>26719</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A332" s="4">
         <v>318</v>
       </c>
@@ -41272,7 +41275,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>319</v>
       </c>
@@ -41388,7 +41391,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A334" s="4">
         <v>320</v>
       </c>
@@ -41504,7 +41507,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>321</v>
       </c>
@@ -41620,7 +41623,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A336" s="4">
         <v>322</v>
       </c>
@@ -41736,7 +41739,7 @@
         <v>17320</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>323</v>
       </c>
@@ -41852,7 +41855,7 @@
         <v>9163</v>
       </c>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A338" s="4">
         <v>324</v>
       </c>
@@ -41968,7 +41971,7 @@
         <v>18726</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>325</v>
       </c>
@@ -42084,7 +42087,7 @@
         <v>10091</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A340" s="4">
         <v>326</v>
       </c>
@@ -42219,9 +42222,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>830</v>
       </c>
@@ -42232,7 +42235,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>835</v>
       </c>
@@ -42246,7 +42249,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>836</v>
       </c>
